--- a/public/excel/Program_Excel.xlsx
+++ b/public/excel/Program_Excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Program</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>ProgramId</t>
-  </si>
-  <si>
-    <t>MPSTME(SHIR)</t>
   </si>
 </sst>
 </file>
@@ -356,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -379,11 +376,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
